--- a/biology/Zoologie/Gerbillus_gerbillus/Gerbillus_gerbillus.xlsx
+++ b/biology/Zoologie/Gerbillus_gerbillus/Gerbillus_gerbillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus gerbillus ou Gerbillus (Gerbillus) gerbillus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés.
-En français elle est appelée de divers noms vernaculaires : Petite gerbille du sable (ou de sable)[1],[2],[3], Petite gerbille d'Égypte[1], Petite gerbille du Sahara[1] ou encore, plus simplement, Petite gerbille[1]. L'espèce fréquente les régions désertes et semi-désertiques du nord de l'Afrique.
+En français elle est appelée de divers noms vernaculaires : Petite gerbille du sable (ou de sable) Petite gerbille d'Égypte, Petite gerbille du Sahara ou encore, plus simplement, Petite gerbille. L'espèce fréquente les régions désertes et semi-désertiques du nord de l'Afrique.
 Ne pas confondre cette espèce avec la Petite gerbille à queue courte.
 </t>
         </is>
